--- a/results/scores-5-factors.xlsx
+++ b/results/scores-5-factors.xlsx
@@ -360,1269 +360,1269 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>PA5</t>
+          <t>V1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>PA3</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PA1</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PA4</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PA2</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.8427114184675373</v>
+        <v>-0.2688201687347019</v>
       </c>
       <c r="B2">
-        <v>0.1756292115165313</v>
+        <v>0.9955288223683463</v>
       </c>
       <c r="C2">
-        <v>-0.2169403807524075</v>
+        <v>0.1381558025231068</v>
       </c>
       <c r="D2">
-        <v>0.9708015094368973</v>
+        <v>0.7988743063097058</v>
       </c>
       <c r="E2">
-        <v>-0.03438384673993601</v>
+        <v>-0.08952611071517343</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0.2991154653243117</v>
+        <v>-0.6518882033553909</v>
       </c>
       <c r="B3">
-        <v>-0.1366254497132391</v>
+        <v>-0.3165426950703941</v>
       </c>
       <c r="C3">
-        <v>-0.6301053686881506</v>
+        <v>-0.06924395960174223</v>
       </c>
       <c r="D3">
-        <v>-2.67922978172006</v>
+        <v>-2.050917686754575</v>
       </c>
       <c r="E3">
-        <v>-0.2230534257363567</v>
+        <v>-0.08209832479871485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.9089704997759431</v>
+        <v>-0.02902415831132235</v>
       </c>
       <c r="B4">
-        <v>0.2853858583082912</v>
+        <v>1.06271998113152</v>
       </c>
       <c r="C4">
-        <v>-0.003745108796479726</v>
+        <v>0.218272652667645</v>
       </c>
       <c r="D4">
-        <v>0.4361527920959276</v>
+        <v>0.4444525467561777</v>
       </c>
       <c r="E4">
-        <v>0.854594837314097</v>
+        <v>0.7675087690636783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-0.8086798140842368</v>
+        <v>-0.3846738140564159</v>
       </c>
       <c r="B5">
-        <v>-0.5409137797474528</v>
+        <v>-0.7996305713325111</v>
       </c>
       <c r="C5">
-        <v>-0.3916447391526465</v>
+        <v>-0.4613626956578869</v>
       </c>
       <c r="D5">
-        <v>-3.479316810437823</v>
+        <v>-3.08868073735629</v>
       </c>
       <c r="E5">
-        <v>0.7653518322297205</v>
+        <v>0.8840236306673875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-0.5345684464124733</v>
+        <v>0.0271907773297304</v>
       </c>
       <c r="B6">
-        <v>-0.3436588976008078</v>
+        <v>-0.6145774368024841</v>
       </c>
       <c r="C6">
-        <v>-0.01771541985896748</v>
+        <v>-0.3416111057991652</v>
       </c>
       <c r="D6">
-        <v>-1.391858902563789</v>
+        <v>-1.087373177083624</v>
       </c>
       <c r="E6">
-        <v>-0.1365904367356267</v>
+        <v>-0.01399986094222147</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-0.7867414930658099</v>
+        <v>-0.8283197538043962</v>
       </c>
       <c r="B7">
-        <v>-0.8940064904240009</v>
+        <v>-0.9346407981697127</v>
       </c>
       <c r="C7">
-        <v>-0.799418511166009</v>
+        <v>-0.8049038514162021</v>
       </c>
       <c r="D7">
-        <v>0.3339804624158865</v>
+        <v>0.340055055658009</v>
       </c>
       <c r="E7">
-        <v>-4.213775754386545</v>
+        <v>-3.91178228651439</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.8935786755792297</v>
+        <v>0.1680761759707992</v>
       </c>
       <c r="B8">
-        <v>-0.1776183350095999</v>
+        <v>1.021045004500212</v>
       </c>
       <c r="C8">
-        <v>0.1597811980601485</v>
+        <v>-0.2522341035724975</v>
       </c>
       <c r="D8">
-        <v>1.064081996780387</v>
+        <v>0.8318377725770543</v>
       </c>
       <c r="E8">
-        <v>-0.6651993668446001</v>
+        <v>-0.6980378197447847</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-1.289841035668182</v>
+        <v>1.074168669499267</v>
       </c>
       <c r="B9">
-        <v>-1.473399396597795</v>
+        <v>-1.534952511077777</v>
       </c>
       <c r="C9">
-        <v>0.9042901123141814</v>
+        <v>-1.745209572951216</v>
       </c>
       <c r="D9">
-        <v>-0.3706315368905047</v>
+        <v>-0.1626686919145107</v>
       </c>
       <c r="E9">
-        <v>0.5800143755479353</v>
+        <v>0.6524635463434745</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1.098153504484486</v>
+        <v>0.8091341173605485</v>
       </c>
       <c r="B10">
-        <v>0.1238056752114629</v>
+        <v>1.140849226550628</v>
       </c>
       <c r="C10">
-        <v>0.7098382211371884</v>
+        <v>0.0717781211201752</v>
       </c>
       <c r="D10">
-        <v>0.1159481146436044</v>
+        <v>0.3289136136874196</v>
       </c>
       <c r="E10">
-        <v>-1.655548702132503</v>
+        <v>-1.542627225396032</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-0.2724504165066341</v>
+        <v>0.8872393595086412</v>
       </c>
       <c r="B11">
-        <v>3.088265987202572</v>
+        <v>-0.5096222050200284</v>
       </c>
       <c r="C11">
-        <v>0.8584956774957018</v>
+        <v>3.526598839511348</v>
       </c>
       <c r="D11">
-        <v>0.5702820342585098</v>
+        <v>0.5562644130392456</v>
       </c>
       <c r="E11">
-        <v>0.580481613416619</v>
+        <v>0.5486964500779717</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.152392608698335</v>
+        <v>-1.373071737580172</v>
       </c>
       <c r="B12">
-        <v>-0.428440688176946</v>
+        <v>0.2307949098366827</v>
       </c>
       <c r="C12">
-        <v>-1.265690574082991</v>
+        <v>-0.3960973025801267</v>
       </c>
       <c r="D12">
-        <v>-0.490104609902772</v>
+        <v>-0.2756017111254084</v>
       </c>
       <c r="E12">
-        <v>-1.267049665268095</v>
+        <v>-1.203082265468011</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.3597472321024483</v>
+        <v>0.1938974144900699</v>
       </c>
       <c r="B13">
-        <v>0.5346691284394329</v>
+        <v>0.3328318057154074</v>
       </c>
       <c r="C13">
-        <v>0.1739504991661608</v>
+        <v>0.589632156468865</v>
       </c>
       <c r="D13">
-        <v>0.347354449402989</v>
+        <v>0.4250346197690015</v>
       </c>
       <c r="E13">
-        <v>-0.9627236237563079</v>
+        <v>-0.9264574826065213</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2.000912798365763</v>
+        <v>0.2901257440573673</v>
       </c>
       <c r="B14">
-        <v>0.1192205722404545</v>
+        <v>2.229214146490443</v>
       </c>
       <c r="C14">
-        <v>0.2493705349540353</v>
+        <v>0.01639119857918317</v>
       </c>
       <c r="D14">
-        <v>0.3715891110925209</v>
+        <v>0.5091591620342266</v>
       </c>
       <c r="E14">
-        <v>-1.32266814347094</v>
+        <v>-1.29047087925348</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-0.6323157299683053</v>
+        <v>-0.9714433738257907</v>
       </c>
       <c r="B15">
-        <v>-0.5456659065498231</v>
+        <v>-0.5450135249421363</v>
       </c>
       <c r="C15">
-        <v>-0.8980288983067569</v>
+        <v>-0.4513903492212469</v>
       </c>
       <c r="D15">
-        <v>-2.837976317068189</v>
+        <v>-2.632738996221534</v>
       </c>
       <c r="E15">
-        <v>0.8304647079130378</v>
+        <v>0.8911810872872712</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-0.7411918628048175</v>
+        <v>0.7374629355567162</v>
       </c>
       <c r="B16">
-        <v>-0.5825449610878297</v>
+        <v>-0.8593653910090008</v>
       </c>
       <c r="C16">
-        <v>0.665520496812727</v>
+        <v>-0.6975881947068076</v>
       </c>
       <c r="D16">
-        <v>0.3569578619241505</v>
+        <v>0.2684699010929649</v>
       </c>
       <c r="E16">
-        <v>0.8147096753923431</v>
+        <v>0.8064218527814985</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-0.1750390246158448</v>
+        <v>1.005635491691848</v>
       </c>
       <c r="B17">
-        <v>0.3034426468720913</v>
+        <v>-0.300083312806355</v>
       </c>
       <c r="C17">
-        <v>0.9250952262164128</v>
+        <v>0.267328760525786</v>
       </c>
       <c r="D17">
-        <v>0.7707829421338064</v>
+        <v>0.736408792676054</v>
       </c>
       <c r="E17">
-        <v>0.1620088998430697</v>
+        <v>0.1766511507968151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.4248266459836926</v>
+        <v>0.1073191915131849</v>
       </c>
       <c r="B18">
-        <v>3.294351937730082</v>
+        <v>0.3125074092781055</v>
       </c>
       <c r="C18">
-        <v>0.1400169984745827</v>
+        <v>3.685354954331901</v>
       </c>
       <c r="D18">
-        <v>0.6058347903344484</v>
+        <v>0.6777312012079307</v>
       </c>
       <c r="E18">
-        <v>0.2661379402958048</v>
+        <v>0.2298251470268973</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.5581138157257242</v>
+        <v>0.7807965869793916</v>
       </c>
       <c r="B19">
-        <v>-0.2869508894253076</v>
+        <v>0.5822319947450866</v>
       </c>
       <c r="C19">
-        <v>0.6906624316846179</v>
+        <v>-0.4303942693114147</v>
       </c>
       <c r="D19">
-        <v>0.30055849735998</v>
+        <v>0.3509335329086895</v>
       </c>
       <c r="E19">
-        <v>-0.01750285703301252</v>
+        <v>-0.02108758519883795</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-1.086075282658482</v>
+        <v>-2.984647253700783</v>
       </c>
       <c r="B20">
-        <v>-0.754848116786748</v>
+        <v>-1.038334660441413</v>
       </c>
       <c r="C20">
-        <v>-2.645228231493702</v>
+        <v>-0.7532626996383428</v>
       </c>
       <c r="D20">
-        <v>0.793328691279817</v>
+        <v>0.7129500812149956</v>
       </c>
       <c r="E20">
-        <v>0.9031215172407223</v>
+        <v>0.7219440719518018</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-0.5953496297468865</v>
+        <v>-0.5360342490763601</v>
       </c>
       <c r="B21">
-        <v>-0.3974331330684363</v>
+        <v>-0.5409648466614176</v>
       </c>
       <c r="C21">
-        <v>-0.5164513211543473</v>
+        <v>-0.2913883489694505</v>
       </c>
       <c r="D21">
-        <v>-3.565955681736058</v>
+        <v>-3.175755250745536</v>
       </c>
       <c r="E21">
-        <v>0.7542827783639545</v>
+        <v>0.86380856599798</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1.692708151034605</v>
+        <v>0.4063299845123006</v>
       </c>
       <c r="B22">
-        <v>0.2178314910103729</v>
+        <v>2.001996043638239</v>
       </c>
       <c r="C22">
-        <v>0.3776506328972444</v>
+        <v>0.1814897394949501</v>
       </c>
       <c r="D22">
-        <v>-0.3951936010003443</v>
+        <v>-0.5138150572563704</v>
       </c>
       <c r="E22">
-        <v>0.820064159731886</v>
+        <v>0.7695404987637065</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.1358630628950772</v>
+        <v>0.8563031863206024</v>
       </c>
       <c r="B23">
-        <v>-0.01830531215789438</v>
+        <v>0.07985359347791227</v>
       </c>
       <c r="C23">
-        <v>0.7662372974055426</v>
+        <v>-0.09882127147767988</v>
       </c>
       <c r="D23">
-        <v>-0.2387128155494419</v>
+        <v>-0.03484314060062363</v>
       </c>
       <c r="E23">
-        <v>0.1504592076322898</v>
+        <v>0.1809550240747988</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.1812073628917523</v>
+        <v>0.5990597959660571</v>
       </c>
       <c r="B24">
-        <v>1.800066781368494</v>
+        <v>0.05818658655457287</v>
       </c>
       <c r="C24">
-        <v>0.5646543283243539</v>
+        <v>1.988034228894652</v>
       </c>
       <c r="D24">
-        <v>0.4927352831028309</v>
+        <v>0.5911450193726406</v>
       </c>
       <c r="E24">
-        <v>-0.07721686117037779</v>
+        <v>-0.06640576812515564</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>-0.981501042063713</v>
+        <v>1.306038872917258</v>
       </c>
       <c r="B25">
-        <v>-0.6378181901741118</v>
+        <v>-1.199097035173115</v>
       </c>
       <c r="C25">
-        <v>1.154605950820891</v>
+        <v>-0.7802079304008196</v>
       </c>
       <c r="D25">
-        <v>-0.4632350163306855</v>
+        <v>-0.2759099608248732</v>
       </c>
       <c r="E25">
-        <v>0.7404500077654322</v>
+        <v>0.7871428711037681</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>-0.3896470993590678</v>
+        <v>2.034431039193645</v>
       </c>
       <c r="B26">
-        <v>-0.6675952364533444</v>
+        <v>-0.6179991170286399</v>
       </c>
       <c r="C26">
-        <v>1.822283523477715</v>
+        <v>-0.9215189605022571</v>
       </c>
       <c r="D26">
-        <v>0.5377672468572392</v>
+        <v>0.7485929688408725</v>
       </c>
       <c r="E26">
-        <v>0.02573147915437379</v>
+        <v>0.07321498649418201</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>-0.1241478989112244</v>
+        <v>0.1019815888053183</v>
       </c>
       <c r="B27">
-        <v>0.02970086468523574</v>
+        <v>-0.07507477608071597</v>
       </c>
       <c r="C27">
-        <v>0.1381451338244879</v>
+        <v>0.03355126402642169</v>
       </c>
       <c r="D27">
-        <v>2.14600049964082</v>
+        <v>1.398508629343769</v>
       </c>
       <c r="E27">
-        <v>0.815039356698556</v>
+        <v>0.6177530835625883</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>-1.511574258087861</v>
+        <v>-0.594050291796431</v>
       </c>
       <c r="B28">
-        <v>-0.8680224353218943</v>
+        <v>-1.665501295907702</v>
       </c>
       <c r="C28">
-        <v>-0.5476444563963604</v>
+        <v>-0.935712462666892</v>
       </c>
       <c r="D28">
-        <v>0.4142361333645575</v>
+        <v>0.2461276646276278</v>
       </c>
       <c r="E28">
-        <v>0.923030725281603</v>
+        <v>0.8553262585933286</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.5038991951939149</v>
+        <v>-0.2301951401386799</v>
       </c>
       <c r="B29">
-        <v>0.6839044271213869</v>
+        <v>0.5158523029247278</v>
       </c>
       <c r="C29">
-        <v>-0.2252637909470375</v>
+        <v>0.8105435271984165</v>
       </c>
       <c r="D29">
-        <v>0.09812856220073146</v>
+        <v>0.1778275264938508</v>
       </c>
       <c r="E29">
-        <v>-1.573725833848393</v>
+        <v>-1.482211608280869</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>-1.412406894117836</v>
+        <v>-1.19340893937022</v>
       </c>
       <c r="B30">
-        <v>-0.8053950300210203</v>
+        <v>-1.520867573685911</v>
       </c>
       <c r="C30">
-        <v>-1.085502328935122</v>
+        <v>-0.8237612563986658</v>
       </c>
       <c r="D30">
-        <v>0.07955574725049519</v>
+        <v>0.0581176769458624</v>
       </c>
       <c r="E30">
-        <v>0.7111830084103388</v>
+        <v>0.6362533730277624</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.48731737183201</v>
+        <v>0.4914499746865646</v>
       </c>
       <c r="B31">
-        <v>2.049218087701607</v>
+        <v>0.4855825526822297</v>
       </c>
       <c r="C31">
-        <v>0.5073553526643215</v>
+        <v>2.234745733786216</v>
       </c>
       <c r="D31">
-        <v>1.460496686301297</v>
+        <v>1.134462450352289</v>
       </c>
       <c r="E31">
-        <v>1.259838622641594</v>
+        <v>1.067616433198994</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>-1.015714394285188</v>
+        <v>-1.622188414114364</v>
       </c>
       <c r="B32">
-        <v>-0.6095003776144636</v>
+        <v>-1.014647438508594</v>
       </c>
       <c r="C32">
-        <v>-1.460229689129275</v>
+        <v>-0.5489025543389052</v>
       </c>
       <c r="D32">
-        <v>-0.8767587006307194</v>
+        <v>-0.8721437010322654</v>
       </c>
       <c r="E32">
-        <v>0.5854858998967344</v>
+        <v>0.557557598506832</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>-0.4976349053585777</v>
+        <v>0.2399039847283912</v>
       </c>
       <c r="B33">
-        <v>-0.6385728235065044</v>
+        <v>-0.619686533850302</v>
       </c>
       <c r="C33">
-        <v>0.1905759259682899</v>
+        <v>-0.6718809460117291</v>
       </c>
       <c r="D33">
-        <v>-0.17144278788741</v>
+        <v>-0.0386228255952981</v>
       </c>
       <c r="E33">
-        <v>-1.628632071055653</v>
+        <v>-1.476167156581327</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>-0.5779429276381516</v>
+        <v>-2.082741055214232</v>
       </c>
       <c r="B34">
-        <v>-0.3928240794503023</v>
+        <v>-0.4918281529080285</v>
       </c>
       <c r="C34">
-        <v>-1.859025447178948</v>
+        <v>-0.2936242232124178</v>
       </c>
       <c r="D34">
-        <v>1.079957792585788</v>
+        <v>0.6005031736013869</v>
       </c>
       <c r="E34">
-        <v>-0.03406010865059633</v>
+        <v>-0.1290055979748254</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>-1.0960474817841</v>
+        <v>-1.796875595717702</v>
       </c>
       <c r="B35">
-        <v>-0.6000660935086413</v>
+        <v>-1.071996755784384</v>
       </c>
       <c r="C35">
-        <v>-1.626178965842612</v>
+        <v>-0.4899734348148768</v>
       </c>
       <c r="D35">
-        <v>-1.767556475292224</v>
+        <v>-1.668625103284744</v>
       </c>
       <c r="E35">
-        <v>0.6344755700822318</v>
+        <v>0.6350807135909879</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>-0.1056412442249843</v>
+        <v>0.2912994153860335</v>
       </c>
       <c r="B36">
-        <v>0.2288095268097809</v>
+        <v>-0.1422230959591727</v>
       </c>
       <c r="C36">
-        <v>0.2818722405953901</v>
+        <v>0.2374896165812035</v>
       </c>
       <c r="D36">
-        <v>0.2161000916218801</v>
+        <v>0.2353733709284234</v>
       </c>
       <c r="E36">
-        <v>0.4614694651680308</v>
+        <v>0.432290473930602</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>-0.9080876636982325</v>
+        <v>1.101185702544869</v>
       </c>
       <c r="B37">
-        <v>-0.4889246301294732</v>
+        <v>-1.107754767019785</v>
       </c>
       <c r="C37">
-        <v>0.9770372692626783</v>
+        <v>-0.5907171560239604</v>
       </c>
       <c r="D37">
-        <v>-0.7343322400038626</v>
+        <v>-0.4916883466858582</v>
       </c>
       <c r="E37">
-        <v>0.5036208851985851</v>
+        <v>0.5654102601233341</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>-0.08799345216932997</v>
+        <v>1.878739789079593</v>
       </c>
       <c r="B38">
-        <v>0.5985887593185513</v>
+        <v>-0.2812294098292186</v>
       </c>
       <c r="C38">
-        <v>1.722366114120343</v>
+        <v>0.5401354616961795</v>
       </c>
       <c r="D38">
-        <v>0.604126576451933</v>
+        <v>0.7349372339942684</v>
       </c>
       <c r="E38">
-        <v>0.2657634090274565</v>
+        <v>0.2725722552014494</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.6105781849323988</v>
+        <v>0.05296980472259975</v>
       </c>
       <c r="B39">
-        <v>0.4981743378197812</v>
+        <v>0.603237412557372</v>
       </c>
       <c r="C39">
-        <v>0.03874273085639424</v>
+        <v>0.5604215868188722</v>
       </c>
       <c r="D39">
-        <v>0.6948530834514379</v>
+        <v>0.7607569308164242</v>
       </c>
       <c r="E39">
-        <v>-1.79569881210858</v>
+        <v>-1.75386010860005</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.8527085872418969</v>
+        <v>0.08759615179240804</v>
       </c>
       <c r="B40">
-        <v>1.439961916646003</v>
+        <v>0.8958369537459304</v>
       </c>
       <c r="C40">
-        <v>0.1213325354922966</v>
+        <v>1.534795862882171</v>
       </c>
       <c r="D40">
-        <v>0.94971835541995</v>
+        <v>0.9066103980361085</v>
       </c>
       <c r="E40">
-        <v>0.1112181704672675</v>
+        <v>0.04451874491796576</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.7664952889308074</v>
+        <v>0.7141460508096088</v>
       </c>
       <c r="B41">
-        <v>0.3685054791665338</v>
+        <v>0.6849127930381078</v>
       </c>
       <c r="C41">
-        <v>0.6096091172021766</v>
+        <v>0.3822759029276203</v>
       </c>
       <c r="D41">
-        <v>-0.3081272244333303</v>
+        <v>0.2049556740114757</v>
       </c>
       <c r="E41">
-        <v>-2.788448137999886</v>
+        <v>-2.590775118894945</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>-1.395867045300048</v>
+        <v>-1.861994122172035</v>
       </c>
       <c r="B42">
-        <v>-0.5737320090133602</v>
+        <v>-1.443329742133774</v>
       </c>
       <c r="C42">
-        <v>-1.674730212368471</v>
+        <v>-0.4975548291352492</v>
       </c>
       <c r="D42">
-        <v>-0.08457126662052322</v>
+        <v>-0.1336083619523756</v>
       </c>
       <c r="E42">
-        <v>0.7719089252180729</v>
+        <v>0.6511793308783872</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1.353790173855019</v>
+        <v>0.6231682230525097</v>
       </c>
       <c r="B43">
-        <v>-0.2619692593226817</v>
+        <v>1.48995708588787</v>
       </c>
       <c r="C43">
-        <v>0.5571210177387628</v>
+        <v>-0.4243900210266937</v>
       </c>
       <c r="D43">
-        <v>0.5530388509322551</v>
+        <v>0.616639799728798</v>
       </c>
       <c r="E43">
-        <v>-0.7929682470654287</v>
+        <v>-0.7941362787955056</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1.627042737349766</v>
+        <v>0.6206549504439257</v>
       </c>
       <c r="B44">
-        <v>-0.1782055576366902</v>
+        <v>1.894551878866919</v>
       </c>
       <c r="C44">
-        <v>0.5846007271520454</v>
+        <v>-0.3275010460574563</v>
       </c>
       <c r="D44">
-        <v>0.2757101129221338</v>
+        <v>0.1245518016915666</v>
       </c>
       <c r="E44">
-        <v>0.5996917186938399</v>
+        <v>0.5285658545272429</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1.432788279995073</v>
+        <v>-1.171374583552797</v>
       </c>
       <c r="B45">
-        <v>-0.5283650344767457</v>
+        <v>1.817817078532678</v>
       </c>
       <c r="C45">
-        <v>-1.077338345345738</v>
+        <v>-0.5961370731057276</v>
       </c>
       <c r="D45">
-        <v>-0.5625536560595041</v>
+        <v>-0.7455876839610297</v>
       </c>
       <c r="E45">
-        <v>0.6439580126646574</v>
+        <v>0.5697686357491162</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.6126467080440637</v>
+        <v>-0.4705184048215725</v>
       </c>
       <c r="B46">
-        <v>-0.4004532614337992</v>
+        <v>0.8024919242636904</v>
       </c>
       <c r="C46">
-        <v>-0.4413895690458144</v>
+        <v>-0.4045981543087433</v>
       </c>
       <c r="D46">
-        <v>-1.992191020880862</v>
+        <v>-1.802324105806822</v>
       </c>
       <c r="E46">
-        <v>0.2095828505227559</v>
+        <v>0.2731456806348694</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1.003955892053223</v>
+        <v>0.4801507921386164</v>
       </c>
       <c r="B47">
-        <v>-0.3461190532551134</v>
+        <v>1.137597845375779</v>
       </c>
       <c r="C47">
-        <v>0.4388599285446548</v>
+        <v>-0.508531964775793</v>
       </c>
       <c r="D47">
-        <v>1.095082076905399</v>
+        <v>0.9025276160839405</v>
       </c>
       <c r="E47">
-        <v>0.0280430236156709</v>
+        <v>-0.03735617214365163</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.5409920270855845</v>
+        <v>-0.8303160953291293</v>
       </c>
       <c r="B48">
-        <v>-0.1882732478567948</v>
+        <v>0.6454752178131267</v>
       </c>
       <c r="C48">
-        <v>-0.7575546169187039</v>
+        <v>-0.1998315799372483</v>
       </c>
       <c r="D48">
-        <v>0.6223416402081899</v>
+        <v>0.5623085732017027</v>
       </c>
       <c r="E48">
-        <v>-0.9211408953653689</v>
+        <v>-0.932940699301306</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>-0.1874788596352127</v>
+        <v>0.9317815479009401</v>
       </c>
       <c r="B49">
-        <v>-0.3521998709348151</v>
+        <v>-0.2447272280354575</v>
       </c>
       <c r="C49">
-        <v>0.8445998834466025</v>
+        <v>-0.4358473579695197</v>
       </c>
       <c r="D49">
-        <v>-0.7462588996188418</v>
+        <v>-0.5866998372828739</v>
       </c>
       <c r="E49">
-        <v>0.3596591051340723</v>
+        <v>0.4132543988635367</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>-1.025795651018801</v>
+        <v>0.6078923186837022</v>
       </c>
       <c r="B50">
-        <v>-0.7348790138000569</v>
+        <v>-1.259457956282307</v>
       </c>
       <c r="C50">
-        <v>0.5270338391303026</v>
+        <v>-0.8014763150922816</v>
       </c>
       <c r="D50">
-        <v>0.4213031943666544</v>
+        <v>0.473595665422192</v>
       </c>
       <c r="E50">
-        <v>-1.389517641409752</v>
+        <v>-1.253164229059113</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>-1.043002068651477</v>
+        <v>0.4493822300705997</v>
       </c>
       <c r="B51">
-        <v>-0.6995793170747058</v>
+        <v>-1.144362290312231</v>
       </c>
       <c r="C51">
-        <v>0.3907513042691992</v>
+        <v>-0.8013859563729981</v>
       </c>
       <c r="D51">
-        <v>0.2664292528256017</v>
+        <v>-0.004638631842306784</v>
       </c>
       <c r="E51">
-        <v>1.498102414050611</v>
+        <v>1.40057119776134</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>2.167963393983316</v>
+        <v>0.9177194783234968</v>
       </c>
       <c r="B52">
-        <v>0.0792425049630108</v>
+        <v>2.442498928073829</v>
       </c>
       <c r="C52">
-        <v>0.8370837576970692</v>
+        <v>-0.07788015006752824</v>
       </c>
       <c r="D52">
-        <v>0.6237815374432481</v>
+        <v>0.5638832199073154</v>
       </c>
       <c r="E52">
-        <v>-0.133034562149941</v>
+        <v>-0.1882314328056684</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1.00837165023568</v>
+        <v>-0.1335669126191893</v>
       </c>
       <c r="B53">
-        <v>0.05186885494583356</v>
+        <v>1.132283094617962</v>
       </c>
       <c r="C53">
-        <v>-0.1210690660256603</v>
+        <v>0.01794206015122124</v>
       </c>
       <c r="D53">
-        <v>0.7227723151399754</v>
+        <v>0.7056771831459373</v>
       </c>
       <c r="E53">
-        <v>-1.147059163111069</v>
+        <v>-1.149335839457895</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>-0.5795248344457558</v>
+        <v>-0.7398715002426289</v>
       </c>
       <c r="B54">
-        <v>-0.5397743931256198</v>
+        <v>-0.627259350128521</v>
       </c>
       <c r="C54">
-        <v>-0.6892152400207048</v>
+        <v>-0.4455030619271774</v>
       </c>
       <c r="D54">
-        <v>-0.06392033401919378</v>
+        <v>-0.1570943438363841</v>
       </c>
       <c r="E54">
-        <v>-2.152923963650478</v>
+        <v>-1.994069625926579</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.3778975009606306</v>
+        <v>-0.4831902889875536</v>
       </c>
       <c r="B55">
-        <v>1.991704039221649</v>
+        <v>0.3660102686803183</v>
       </c>
       <c r="C55">
-        <v>-0.4060683479784264</v>
+        <v>2.210919235893418</v>
       </c>
       <c r="D55">
-        <v>0.2488078253206791</v>
+        <v>0.3995744818958333</v>
       </c>
       <c r="E55">
-        <v>0.3858452736772846</v>
+        <v>0.3256836068689998</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>-0.4718042950454268</v>
+        <v>-0.4395899325248406</v>
       </c>
       <c r="B56">
-        <v>-0.470524108618029</v>
+        <v>-0.415658672095528</v>
       </c>
       <c r="C56">
-        <v>-0.41351418868609</v>
+        <v>-0.4437238142742885</v>
       </c>
       <c r="D56">
-        <v>-2.033208972153883</v>
+        <v>-1.921658992390666</v>
       </c>
       <c r="E56">
-        <v>1.028465395286332</v>
+        <v>1.063736264723271</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>-0.9553826658503914</v>
+        <v>-1.790850994903468</v>
       </c>
       <c r="B57">
-        <v>-0.2827932225721</v>
+        <v>-0.9806309243192004</v>
       </c>
       <c r="C57">
-        <v>-1.601090293635286</v>
+        <v>-0.1726008277997915</v>
       </c>
       <c r="D57">
-        <v>0.1482842719360661</v>
+        <v>0.01129426669899575</v>
       </c>
       <c r="E57">
-        <v>-0.06499367092704095</v>
+        <v>-0.1083840367753024</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>-0.2439914088975911</v>
+        <v>0.9999749211889113</v>
       </c>
       <c r="B58">
-        <v>2.528428203145446</v>
+        <v>-0.4616300231546042</v>
       </c>
       <c r="C58">
-        <v>0.9584483945843841</v>
+        <v>2.850905826575788</v>
       </c>
       <c r="D58">
-        <v>0.5959630251430592</v>
+        <v>0.6169130592853459</v>
       </c>
       <c r="E58">
-        <v>0.56977411643006</v>
+        <v>0.5437137480037398</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>-0.5500707202031085</v>
+        <v>2.705439253715278</v>
       </c>
       <c r="B59">
-        <v>0.1993381169259266</v>
+        <v>-0.8441868000610497</v>
       </c>
       <c r="C59">
-        <v>2.486283121849396</v>
+        <v>0.07158111913320514</v>
       </c>
       <c r="D59">
-        <v>0.4716937041490089</v>
+        <v>0.6743900297056132</v>
       </c>
       <c r="E59">
-        <v>0.5707155707085226</v>
+        <v>0.5976862749616747</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>-0.266948517255479</v>
+        <v>0.3733174598364152</v>
       </c>
       <c r="B60">
-        <v>-1.146368473380076</v>
+        <v>-0.2607354431462653</v>
       </c>
       <c r="C60">
-        <v>0.3174387109262482</v>
+        <v>-1.393785431484458</v>
       </c>
       <c r="D60">
-        <v>0.03946895284740914</v>
+        <v>0.07115962803845174</v>
       </c>
       <c r="E60">
-        <v>1.081459149458018</v>
+        <v>1.030712716857571</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>1.020602273148657</v>
+        <v>0.3000540848291695</v>
       </c>
       <c r="B61">
-        <v>0.7763737149404916</v>
+        <v>1.116748384394008</v>
       </c>
       <c r="C61">
-        <v>0.2928181924701965</v>
+        <v>0.7986350594625445</v>
       </c>
       <c r="D61">
-        <v>0.7841699859537797</v>
+        <v>0.7073297862743592</v>
       </c>
       <c r="E61">
-        <v>-0.02131693688196512</v>
+        <v>-0.09255091861739967</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>-0.8747769410843354</v>
+        <v>0.6221099063484571</v>
       </c>
       <c r="B62">
-        <v>-0.6681198035059109</v>
+        <v>-0.9990939343564121</v>
       </c>
       <c r="C62">
-        <v>0.5343525451796493</v>
+        <v>-0.7454528071447685</v>
       </c>
       <c r="D62">
-        <v>-1.417517469092548</v>
+        <v>-1.160076729259183</v>
       </c>
       <c r="E62">
-        <v>0.6135097602579174</v>
+        <v>0.6872225071547007</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>-0.8149109069065432</v>
+        <v>0.4792849435367669</v>
       </c>
       <c r="B63">
-        <v>-0.6023327230320595</v>
+        <v>-0.95884199566148</v>
       </c>
       <c r="C63">
-        <v>0.4087232401180933</v>
+        <v>-0.6706161143768061</v>
       </c>
       <c r="D63">
-        <v>-0.6689720846836865</v>
+        <v>-0.4850855857357232</v>
       </c>
       <c r="E63">
-        <v>-0.02422824621952219</v>
+        <v>0.06561187313957326</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.7622789746354747</v>
+        <v>0.1929602761560958</v>
       </c>
       <c r="B64">
-        <v>0.2322570285847017</v>
+        <v>0.9201636843179424</v>
       </c>
       <c r="C64">
-        <v>0.2099251521276623</v>
+        <v>0.1879813004045952</v>
       </c>
       <c r="D64">
-        <v>1.181102166315813</v>
+        <v>0.7773853779224823</v>
       </c>
       <c r="E64">
-        <v>1.039341109905101</v>
+        <v>0.8926722147965074</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>-0.5647160668250562</v>
+        <v>0.08586048850386861</v>
       </c>
       <c r="B65">
-        <v>0.3789782872857467</v>
+        <v>-0.6351393973623987</v>
       </c>
       <c r="C65">
-        <v>0.1078292129093529</v>
+        <v>0.4622893534073586</v>
       </c>
       <c r="D65">
-        <v>0.1636215715762293</v>
+        <v>-0.005454014266564694</v>
       </c>
       <c r="E65">
-        <v>0.5107009925977429</v>
+        <v>0.4984183096687459</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.8128269590475651</v>
+        <v>0.394961387860051</v>
       </c>
       <c r="B66">
-        <v>0.09993410196071276</v>
+        <v>0.8772438385498563</v>
       </c>
       <c r="C66">
-        <v>0.368938198166122</v>
+        <v>0.05221260436513564</v>
       </c>
       <c r="D66">
-        <v>0.9078056963518123</v>
+        <v>0.8357650988388652</v>
       </c>
       <c r="E66">
-        <v>-0.7976364721743113</v>
+        <v>-0.8156873996828781</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>-1.091914349517282</v>
+        <v>-1.712936113609338</v>
       </c>
       <c r="B67">
-        <v>-0.2621207071938295</v>
+        <v>-1.087311402197271</v>
       </c>
       <c r="C67">
-        <v>-1.539352340957457</v>
+        <v>-0.1018681738458162</v>
       </c>
       <c r="D67">
-        <v>-1.249340879230443</v>
+        <v>-1.278026252551303</v>
       </c>
       <c r="E67">
-        <v>0.5886153076605196</v>
+        <v>0.5747522576155159</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>-1.102235368454019</v>
+        <v>0.3749430820418194</v>
       </c>
       <c r="B68">
-        <v>-0.8420420568197438</v>
+        <v>-1.190475741616546</v>
       </c>
       <c r="C68">
-        <v>0.3307961913905526</v>
+        <v>-0.9509731601274248</v>
       </c>
       <c r="D68">
-        <v>0.6162174088227863</v>
+        <v>0.2070911532827036</v>
       </c>
       <c r="E68">
-        <v>1.455000841927391</v>
+        <v>1.355248820916153</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.8293525645200268</v>
+        <v>0.1562262769754145</v>
       </c>
       <c r="B69">
-        <v>0.6915553601351809</v>
+        <v>0.8513521286804748</v>
       </c>
       <c r="C69">
-        <v>0.1263182893611563</v>
+        <v>0.7769108809011015</v>
       </c>
       <c r="D69">
-        <v>0.1467237240013439</v>
+        <v>0.3177254161629968</v>
       </c>
       <c r="E69">
-        <v>-1.696943485749815</v>
+        <v>-1.597487261547717</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.5555403177334075</v>
+        <v>-0.6053172179304849</v>
       </c>
       <c r="B70">
-        <v>-0.3739191665579047</v>
+        <v>0.7083835429693014</v>
       </c>
       <c r="C70">
-        <v>-0.5936155237501538</v>
+        <v>-0.3689271153431964</v>
       </c>
       <c r="D70">
-        <v>-2.376421712577945</v>
+        <v>-2.006491591787411</v>
       </c>
       <c r="E70">
-        <v>-0.08954073592141038</v>
+        <v>0.0115162559722154</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>-0.4619778876500393</v>
+        <v>-0.6256161959693575</v>
       </c>
       <c r="B71">
-        <v>-0.5456723856445488</v>
+        <v>-0.3711601989040982</v>
       </c>
       <c r="C71">
-        <v>-0.5347500752800867</v>
+        <v>-0.6070435169151793</v>
       </c>
       <c r="D71">
-        <v>2.527518742131452</v>
+        <v>1.550836651061766</v>
       </c>
       <c r="E71">
-        <v>1.710239424039628</v>
+        <v>1.440613456140855</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>-0.7276460018433444</v>
+        <v>-1.540494394352175</v>
       </c>
       <c r="B72">
-        <v>-0.6000460427441123</v>
+        <v>-0.585285402775296</v>
       </c>
       <c r="C72">
-        <v>-1.348531223243393</v>
+        <v>-0.5400365327052241</v>
       </c>
       <c r="D72">
-        <v>2.413951530835849</v>
+        <v>1.28751075443451</v>
       </c>
       <c r="E72">
-        <v>1.058746039473267</v>
+        <v>0.8407691065130434</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.8971727907180194</v>
+        <v>0.3076194316853242</v>
       </c>
       <c r="B73">
-        <v>-0.07130491751993977</v>
+        <v>0.9828555547436247</v>
       </c>
       <c r="C73">
-        <v>0.2633107707050186</v>
+        <v>-0.1573465391749255</v>
       </c>
       <c r="D73">
-        <v>0.5105436218388442</v>
+        <v>0.5162876305701184</v>
       </c>
       <c r="E73">
-        <v>-0.6362631279324716</v>
+        <v>-0.6401324004239705</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.8143444036370316</v>
+        <v>0.08703604709735172</v>
       </c>
       <c r="B74">
-        <v>0.08871097676690823</v>
+        <v>0.8923084126083369</v>
       </c>
       <c r="C74">
-        <v>0.05231024814344447</v>
+        <v>0.07644534191351528</v>
       </c>
       <c r="D74">
-        <v>-0.1822717229908276</v>
+        <v>-0.04532039249581284</v>
       </c>
       <c r="E74">
-        <v>-0.978512380539162</v>
+        <v>-0.9215278651998087</v>
       </c>
     </row>
   </sheetData>

--- a/results/scores-5-factors.xlsx
+++ b/results/scores-5-factors.xlsx
@@ -360,12 +360,12 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ML4</t>
+          <t>ML3</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ML3</t>
+          <t>ML5</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -380,1249 +380,1249 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ML5</t>
+          <t>ML4</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.3075335109038109</v>
+        <v>0.3485713063620887</v>
       </c>
       <c r="B2">
-        <v>0.7942687793800045</v>
+        <v>0.7904512033678875</v>
       </c>
       <c r="C2">
-        <v>0.6848677064342866</v>
+        <v>-0.07324936148910352</v>
       </c>
       <c r="D2">
-        <v>-0.1731495162550696</v>
+        <v>-0.5240935117359191</v>
       </c>
       <c r="E2">
-        <v>-0.3595395284793723</v>
+        <v>0.4293576095670279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0.9333585612129347</v>
+        <v>-0.8292179641727417</v>
       </c>
       <c r="B3">
-        <v>-1.298243837909287</v>
+        <v>-1.024353950232475</v>
       </c>
       <c r="C3">
-        <v>0.3974549600894851</v>
+        <v>-1.271017874717522</v>
       </c>
       <c r="D3">
-        <v>0.5257276210497642</v>
+        <v>1.199194796887189</v>
       </c>
       <c r="E3">
-        <v>0.0317730881021667</v>
+        <v>0.1674981050498045</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.3394385790249787</v>
+        <v>0.569346551261355</v>
       </c>
       <c r="B4">
-        <v>0.8225068401145186</v>
+        <v>0.8646448750257005</v>
       </c>
       <c r="C4">
-        <v>0.3687719321549575</v>
+        <v>0.2597002534720493</v>
       </c>
       <c r="D4">
-        <v>0.9015929129508741</v>
+        <v>0.2359970336786985</v>
       </c>
       <c r="E4">
-        <v>-0.2779910102962579</v>
+        <v>0.6704985682098988</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-0.5647926079069566</v>
+        <v>-1.500889522816733</v>
       </c>
       <c r="B5">
-        <v>-3.177221091351593</v>
+        <v>-1.711739307788704</v>
       </c>
       <c r="C5">
-        <v>-0.04707367865256734</v>
+        <v>-1.533867494053829</v>
       </c>
       <c r="D5">
-        <v>0.2931681967134404</v>
+        <v>1.920591094414288</v>
       </c>
       <c r="E5">
-        <v>0.09631073083654548</v>
+        <v>-1.696146867574828</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-0.3604598331192436</v>
+        <v>-0.4472077411331648</v>
       </c>
       <c r="B6">
-        <v>-0.8182108419412562</v>
+        <v>-0.874418040609964</v>
       </c>
       <c r="C6">
-        <v>-0.8177958568523451</v>
+        <v>0.1286257787468629</v>
       </c>
       <c r="D6">
-        <v>0.00603130139242743</v>
+        <v>0.4277508871877984</v>
       </c>
       <c r="E6">
-        <v>0.3319638526566379</v>
+        <v>-0.4685094559898484</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-0.7310031956633798</v>
+        <v>-1.066122496938968</v>
       </c>
       <c r="B7">
-        <v>0.009552377113803273</v>
+        <v>-1.03857609831962</v>
       </c>
       <c r="C7">
-        <v>0.2358405588049619</v>
+        <v>-0.7775314898190135</v>
       </c>
       <c r="D7">
-        <v>-4.463167763248078</v>
+        <v>-3.195428857353317</v>
       </c>
       <c r="E7">
-        <v>0.09682795064397176</v>
+        <v>-0.6385721022388342</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.6556804091726562</v>
+        <v>0.01009677514279932</v>
       </c>
       <c r="B8">
-        <v>0.6123598297938963</v>
+        <v>1.118082175890677</v>
       </c>
       <c r="C8">
-        <v>0.7050917082787875</v>
+        <v>-0.05278981108033069</v>
       </c>
       <c r="D8">
-        <v>-0.6926187533216914</v>
+        <v>-0.7559067585760071</v>
       </c>
       <c r="E8">
-        <v>-0.9915325469204462</v>
+        <v>-0.06486132509924653</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-0.2664555581590184</v>
+        <v>-1.085090786764469</v>
       </c>
       <c r="B9">
-        <v>-0.6137826295075788</v>
+        <v>-0.9915341698562943</v>
       </c>
       <c r="C9">
-        <v>-3.700747394264227</v>
+        <v>2.446790493205958</v>
       </c>
       <c r="D9">
-        <v>0.3138613322621122</v>
+        <v>0.6992054748511414</v>
       </c>
       <c r="E9">
-        <v>-0.4660191650256855</v>
+        <v>-0.7253036201440868</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1.103286684515374</v>
+        <v>0.1227989164258214</v>
       </c>
       <c r="B10">
-        <v>0.5808524247398731</v>
+        <v>1.125748405519235</v>
       </c>
       <c r="C10">
-        <v>0.199315208806425</v>
+        <v>0.5124934597250869</v>
       </c>
       <c r="D10">
-        <v>-1.436009247319162</v>
+        <v>-1.396435689624627</v>
       </c>
       <c r="E10">
-        <v>-0.7871294162974123</v>
+        <v>-0.8657189932989615</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1.194997496789685</v>
+        <v>3.384005444864386</v>
       </c>
       <c r="B11">
-        <v>0.9226517750653179</v>
+        <v>-0.02797617635276997</v>
       </c>
       <c r="C11">
-        <v>0.7430554519869483</v>
+        <v>0.6537913817807354</v>
       </c>
       <c r="D11">
-        <v>0.9211261497912475</v>
+        <v>-0.7263319748833127</v>
       </c>
       <c r="E11">
-        <v>3.983906016712297</v>
+        <v>-0.755942023157635</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-1.063794398095511</v>
+        <v>-0.7791238550098789</v>
       </c>
       <c r="B12">
-        <v>0.4294966390384945</v>
+        <v>-0.09737187001928227</v>
       </c>
       <c r="C12">
-        <v>0.7977392128068703</v>
+        <v>-1.028371134921775</v>
       </c>
       <c r="D12">
-        <v>-0.4586102674834837</v>
+        <v>-0.2286704951263137</v>
       </c>
       <c r="E12">
-        <v>-0.8660102795947069</v>
+        <v>1.474188595292372</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.4992541172025232</v>
+        <v>0.4526688916823148</v>
       </c>
       <c r="B13">
-        <v>0.3773321390104167</v>
+        <v>0.3489326584966178</v>
       </c>
       <c r="C13">
-        <v>0.3900467834593602</v>
+        <v>0.06935561870947862</v>
       </c>
       <c r="D13">
-        <v>-0.8839804942531407</v>
+        <v>-0.9841538963244915</v>
       </c>
       <c r="E13">
-        <v>0.2924320465852788</v>
+        <v>-0.4411665488452815</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1.424706458390337</v>
+        <v>0.08182259638015813</v>
       </c>
       <c r="B14">
-        <v>0.7885122852574935</v>
+        <v>2.017964931931477</v>
       </c>
       <c r="C14">
-        <v>0.9088661961729964</v>
+        <v>0.2045356167267532</v>
       </c>
       <c r="D14">
-        <v>-0.70814406952316</v>
+        <v>-0.8503365911134118</v>
       </c>
       <c r="E14">
-        <v>-1.732387115052825</v>
+        <v>-0.4859993790222323</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-0.7756263542686682</v>
+        <v>-1.392701735251064</v>
       </c>
       <c r="B15">
-        <v>-2.758177999072979</v>
+        <v>-1.469287725461897</v>
       </c>
       <c r="C15">
-        <v>0.6792407246962505</v>
+        <v>-2.025858102823292</v>
       </c>
       <c r="D15">
-        <v>0.3429901075392933</v>
+        <v>1.797269425923586</v>
       </c>
       <c r="E15">
-        <v>-0.03688127956325739</v>
+        <v>-1.018606815809723</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-0.2911635162905225</v>
+        <v>-0.07003723065124545</v>
       </c>
       <c r="B16">
-        <v>0.1877912820328651</v>
+        <v>-0.2451033895024926</v>
       </c>
       <c r="C16">
-        <v>-1.020299769885867</v>
+        <v>0.755096435986014</v>
       </c>
       <c r="D16">
-        <v>0.6898349355242589</v>
+        <v>0.4643952392694647</v>
       </c>
       <c r="E16">
-        <v>0.01583908984085525</v>
+        <v>0.4168731709682147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.6710627464897399</v>
+        <v>0.8275954761439888</v>
       </c>
       <c r="B17">
-        <v>0.6338036136692524</v>
+        <v>0.3786666812821317</v>
       </c>
       <c r="C17">
-        <v>-0.7652951763026888</v>
+        <v>1.221349929916317</v>
       </c>
       <c r="D17">
-        <v>0.2486548409061899</v>
+        <v>-0.348356457062214</v>
       </c>
       <c r="E17">
-        <v>0.549791324105396</v>
+        <v>-0.3425679190505453</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1.311717069948289</v>
+        <v>2.832089258623561</v>
       </c>
       <c r="B18">
-        <v>0.9597300377806657</v>
+        <v>0.4818479535434026</v>
       </c>
       <c r="C18">
-        <v>0.7368745848974381</v>
+        <v>0.6712241148728824</v>
       </c>
       <c r="D18">
-        <v>0.8800112547543489</v>
+        <v>-0.5859353175487346</v>
       </c>
       <c r="E18">
-        <v>2.844072579077003</v>
+        <v>-0.6437657204151288</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.668898298936738</v>
+        <v>-0.02727478309035545</v>
       </c>
       <c r="B19">
-        <v>0.3117781253980101</v>
+        <v>0.7476366031760501</v>
       </c>
       <c r="C19">
-        <v>-0.6367348498928358</v>
+        <v>0.9150216862011898</v>
       </c>
       <c r="D19">
-        <v>0.135454842559367</v>
+        <v>-0.02403968104746519</v>
       </c>
       <c r="E19">
-        <v>-0.7768330980278552</v>
+        <v>-0.3396114860064797</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-3.034363878450086</v>
+        <v>-1.064671215065805</v>
       </c>
       <c r="B20">
-        <v>0.7541983735198792</v>
+        <v>-1.468084352177693</v>
       </c>
       <c r="C20">
-        <v>0.3815513547540116</v>
+        <v>-1.44646189274142</v>
       </c>
       <c r="D20">
-        <v>0.7218608914726923</v>
+        <v>0.6748947344865183</v>
       </c>
       <c r="E20">
-        <v>-0.1596471813271988</v>
+        <v>3.696047985365104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-0.5412543879187208</v>
+        <v>-1.417640921507082</v>
       </c>
       <c r="B21">
-        <v>-3.206718119664224</v>
+        <v>-1.554291293636678</v>
       </c>
       <c r="C21">
-        <v>0.6100596204969377</v>
+        <v>-2.03687964162374</v>
       </c>
       <c r="D21">
-        <v>0.3469699460642369</v>
+        <v>1.972415481250451</v>
       </c>
       <c r="E21">
-        <v>0.06845883597977798</v>
+        <v>-1.591334925793899</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.9113298015200464</v>
+        <v>0.3036500151598093</v>
       </c>
       <c r="B22">
-        <v>0.4241746360710151</v>
+        <v>1.662700357992913</v>
       </c>
       <c r="C22">
-        <v>1.24894722136095</v>
+        <v>-0.3355085628629621</v>
       </c>
       <c r="D22">
-        <v>1.139221199017682</v>
+        <v>0.6984029991544839</v>
       </c>
       <c r="E22">
-        <v>-1.277268973819281</v>
+        <v>0.2744031805794763</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.6988921638863006</v>
+        <v>0.2884845975064107</v>
       </c>
       <c r="B23">
-        <v>0.03611928520085589</v>
+        <v>0.3911648259984362</v>
       </c>
       <c r="C23">
-        <v>-0.7469193448913819</v>
+        <v>0.9498462154740675</v>
       </c>
       <c r="D23">
-        <v>0.3674677107386282</v>
+        <v>0.1519081643338184</v>
       </c>
       <c r="E23">
-        <v>-0.05583294480491295</v>
+        <v>-0.6483019519816391</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1.019875992359322</v>
+        <v>1.815384210304056</v>
       </c>
       <c r="B24">
-        <v>0.8157815786041597</v>
+        <v>0.4081908958027215</v>
       </c>
       <c r="C24">
-        <v>-0.008396577845685788</v>
+        <v>0.9487981136456629</v>
       </c>
       <c r="D24">
-        <v>0.263111124863416</v>
+        <v>-0.7095833806168115</v>
       </c>
       <c r="E24">
-        <v>1.728278147319793</v>
+        <v>-0.6021485128541818</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.1186003133627445</v>
+        <v>-0.2449847610564928</v>
       </c>
       <c r="B25">
-        <v>-0.4943292320458058</v>
+        <v>-0.6398258554563402</v>
       </c>
       <c r="C25">
-        <v>-2.315663854248695</v>
+        <v>1.669250016571124</v>
       </c>
       <c r="D25">
-        <v>0.4830596601603359</v>
+        <v>0.5598560985228656</v>
       </c>
       <c r="E25">
-        <v>0.2451155883354183</v>
+        <v>-0.8103690912191809</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.6586750435789395</v>
+        <v>0.07449695479605398</v>
       </c>
       <c r="B26">
-        <v>0.5053575558105456</v>
+        <v>0.347759867793751</v>
       </c>
       <c r="C26">
-        <v>-2.172654865225445</v>
+        <v>2.191192439118651</v>
       </c>
       <c r="D26">
-        <v>0.1663478881673531</v>
+        <v>-0.1669335139546412</v>
       </c>
       <c r="E26">
-        <v>-0.3516359443503459</v>
+        <v>-0.5549050406330831</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>-0.06468309957679866</v>
+        <v>0.4086985198518939</v>
       </c>
       <c r="B27">
-        <v>0.7230427644663247</v>
+        <v>0.2811464385592399</v>
       </c>
       <c r="C27">
-        <v>0.5691342312541066</v>
+        <v>-0.1723029848936834</v>
       </c>
       <c r="D27">
-        <v>-0.2185500922989524</v>
+        <v>-0.558711021968701</v>
       </c>
       <c r="E27">
-        <v>0.1855996242465954</v>
+        <v>0.5898642502105422</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>-1.394349222824923</v>
+        <v>-0.8192921727763939</v>
       </c>
       <c r="B28">
-        <v>-0.2191781308837206</v>
+        <v>-1.391496665280578</v>
       </c>
       <c r="C28">
-        <v>-1.757177495125321</v>
+        <v>0.6055076035192101</v>
       </c>
       <c r="D28">
-        <v>0.4856789581176871</v>
+        <v>0.6779349758695005</v>
       </c>
       <c r="E28">
-        <v>0.1885390237002288</v>
+        <v>0.9181387042359617</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.4508358170977197</v>
+        <v>0.3306186695070175</v>
       </c>
       <c r="B29">
-        <v>0.3236285756295746</v>
+        <v>0.2035911250229789</v>
       </c>
       <c r="C29">
-        <v>0.4992347966997976</v>
+        <v>-0.09569135489705899</v>
       </c>
       <c r="D29">
-        <v>-1.585573000310055</v>
+        <v>-1.478602611652764</v>
       </c>
       <c r="E29">
-        <v>0.3565666396747517</v>
+        <v>-0.6383506665882133</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>-2.006426574079829</v>
+        <v>-0.899351427000422</v>
       </c>
       <c r="B30">
-        <v>0.1900183977900194</v>
+        <v>-1.282370115094811</v>
       </c>
       <c r="C30">
-        <v>-0.6417906226301265</v>
+        <v>-0.3867440313867973</v>
       </c>
       <c r="D30">
-        <v>0.6434336827500308</v>
+        <v>0.724074056834662</v>
       </c>
       <c r="E30">
-        <v>-0.05856819830097848</v>
+        <v>2.091549221897015</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.8313334469229587</v>
+        <v>1.955452993383023</v>
       </c>
       <c r="B31">
-        <v>1.017388352406893</v>
+        <v>0.7824020313619045</v>
       </c>
       <c r="C31">
-        <v>1.030651225644095</v>
+        <v>0.1734723050255232</v>
       </c>
       <c r="D31">
-        <v>1.070975727286571</v>
+        <v>-0.1453641529364727</v>
       </c>
       <c r="E31">
-        <v>1.471682808390508</v>
+        <v>0.211140107183264</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>-1.558192098118133</v>
+        <v>-0.9843013875250302</v>
       </c>
       <c r="B32">
-        <v>-1.030142924085002</v>
+        <v>-1.397630665341725</v>
       </c>
       <c r="C32">
-        <v>0.2805534840403942</v>
+        <v>-1.37542414679946</v>
       </c>
       <c r="D32">
-        <v>0.4857656967240154</v>
+        <v>1.116171881662497</v>
       </c>
       <c r="E32">
-        <v>0.142402256485167</v>
+        <v>0.8886017628470697</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>-0.200089271937358</v>
+        <v>-0.5829757451208167</v>
       </c>
       <c r="B33">
-        <v>-0.1967186640147517</v>
+        <v>-0.461571414647723</v>
       </c>
       <c r="C33">
-        <v>-0.365971096686016</v>
+        <v>0.004766055481282519</v>
       </c>
       <c r="D33">
-        <v>-1.64775430257642</v>
+        <v>-1.059261822281107</v>
       </c>
       <c r="E33">
-        <v>-0.1087480824788028</v>
+        <v>-0.5058122604690877</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>-1.656125471358619</v>
+        <v>-0.4422193931915192</v>
       </c>
       <c r="B34">
-        <v>0.5353440406155391</v>
+        <v>-0.7475319447251615</v>
       </c>
       <c r="C34">
-        <v>0.8357187307988921</v>
+        <v>-1.238745724337958</v>
       </c>
       <c r="D34">
-        <v>-0.1141495681148614</v>
+        <v>-0.1053712532374913</v>
       </c>
       <c r="E34">
-        <v>0.0846587441772361</v>
+        <v>2.041446233910497</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>-1.805993157507691</v>
+        <v>-1.351741617306617</v>
       </c>
       <c r="B35">
-        <v>-1.671286105688014</v>
+        <v>-1.721082348286859</v>
       </c>
       <c r="C35">
-        <v>0.6560941901422401</v>
+        <v>-2.051943386392123</v>
       </c>
       <c r="D35">
-        <v>0.5243178263432654</v>
+        <v>1.524620091858622</v>
       </c>
       <c r="E35">
-        <v>0.07241096448506279</v>
+        <v>0.7554520086226195</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.1675972438043846</v>
+        <v>0.6182019473428839</v>
       </c>
       <c r="B36">
-        <v>0.4043759716114114</v>
+        <v>0.09298108253565632</v>
       </c>
       <c r="C36">
-        <v>-0.1209835974388469</v>
+        <v>0.3941745130544473</v>
       </c>
       <c r="D36">
-        <v>0.407491989610099</v>
+        <v>-0.03937969336375376</v>
       </c>
       <c r="E36">
-        <v>0.5768518629264128</v>
+        <v>0.1296192585958934</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.1133626800071268</v>
+        <v>-0.1925717074712628</v>
       </c>
       <c r="B37">
-        <v>-0.6943330455190261</v>
+        <v>-0.6445832398191633</v>
       </c>
       <c r="C37">
-        <v>-1.662031399343988</v>
+        <v>1.084377457134183</v>
       </c>
       <c r="D37">
-        <v>0.403521306857094</v>
+        <v>0.5788162518477054</v>
       </c>
       <c r="E37">
-        <v>0.3627185034573222</v>
+        <v>-0.8690830920750343</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1.035411093892562</v>
+        <v>1.124594939697865</v>
       </c>
       <c r="B38">
-        <v>0.7014066750944765</v>
+        <v>0.6533470383302997</v>
       </c>
       <c r="C38">
-        <v>-0.7726714533019133</v>
+        <v>1.453981324125799</v>
       </c>
       <c r="D38">
-        <v>0.5270371886502396</v>
+        <v>-0.2524705307917878</v>
       </c>
       <c r="E38">
-        <v>0.6292859316657953</v>
+        <v>-0.5653404097301504</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.4957038760880115</v>
+        <v>0.4059717295415476</v>
       </c>
       <c r="B39">
-        <v>0.6302913449733454</v>
+        <v>0.4188384158901983</v>
       </c>
       <c r="C39">
-        <v>0.8301689924010122</v>
+        <v>-0.2261425635138116</v>
       </c>
       <c r="D39">
-        <v>-1.959407775430865</v>
+        <v>-1.903261155089314</v>
       </c>
       <c r="E39">
-        <v>0.2595450458973645</v>
+        <v>-0.4916871253580569</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1.082167807626268</v>
+        <v>1.578810351190183</v>
       </c>
       <c r="B40">
-        <v>0.9745375008469965</v>
+        <v>1.191937340374347</v>
       </c>
       <c r="C40">
-        <v>0.977888020413643</v>
+        <v>0.2673177847457193</v>
       </c>
       <c r="D40">
-        <v>0.8575984850013716</v>
+        <v>-0.1742714489889324</v>
       </c>
       <c r="E40">
-        <v>0.6661786665762313</v>
+        <v>0.01833926517688149</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.8993659610740042</v>
+        <v>0.1618596127375035</v>
       </c>
       <c r="B41">
-        <v>0.3956899372798908</v>
+        <v>0.5810908232566419</v>
       </c>
       <c r="C41">
-        <v>0.3833390844761109</v>
+        <v>0.1759089936051542</v>
       </c>
       <c r="D41">
-        <v>-2.390031942915917</v>
+        <v>-2.095259705429467</v>
       </c>
       <c r="E41">
-        <v>-0.118753119967401</v>
+        <v>-1.184916539462941</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>-2.64596707151842</v>
+        <v>-0.9503891776618997</v>
       </c>
       <c r="B42">
-        <v>0.3694069911234537</v>
+        <v>-1.315050032807662</v>
       </c>
       <c r="C42">
-        <v>0.7138660489754045</v>
+        <v>-1.662580839112662</v>
       </c>
       <c r="D42">
-        <v>0.7810415243794942</v>
+        <v>0.8391273582822114</v>
       </c>
       <c r="E42">
-        <v>-0.1038487179360852</v>
+        <v>3.128585561205251</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1.005584703104803</v>
+        <v>-0.09492330979290437</v>
       </c>
       <c r="B43">
-        <v>0.5962130961049255</v>
+        <v>1.570482239502909</v>
       </c>
       <c r="C43">
-        <v>0.5226504623216722</v>
+        <v>0.244945102371075</v>
       </c>
       <c r="D43">
-        <v>-0.3039590221186645</v>
+        <v>-0.4114423331351963</v>
       </c>
       <c r="E43">
-        <v>-1.570888007854959</v>
+        <v>-0.214345330837935</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1.110208163811757</v>
+        <v>0.150166928038932</v>
       </c>
       <c r="B44">
-        <v>0.3695140992618325</v>
+        <v>1.936567020478514</v>
       </c>
       <c r="C44">
-        <v>1.262673236753032</v>
+        <v>-0.2914198388179982</v>
       </c>
       <c r="D44">
-        <v>1.156279775931077</v>
+        <v>0.7848141001000145</v>
       </c>
       <c r="E44">
-        <v>-1.707084225962226</v>
+        <v>0.1357864177610957</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>-0.2061855026072477</v>
+        <v>-0.8646765983717859</v>
       </c>
       <c r="B45">
-        <v>-0.317575938070305</v>
+        <v>0.5248000324946207</v>
       </c>
       <c r="C45">
-        <v>0.5225538560713279</v>
+        <v>-0.6691889920545998</v>
       </c>
       <c r="D45">
-        <v>0.8055148467818195</v>
+        <v>1.075347531210582</v>
       </c>
       <c r="E45">
-        <v>-1.568661682288014</v>
+        <v>0.5956190566105575</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.121809693873143</v>
+        <v>-0.9153459383904679</v>
       </c>
       <c r="B46">
-        <v>-1.624578780392306</v>
+        <v>0.006278341230004869</v>
       </c>
       <c r="C46">
-        <v>0.7343600525588863</v>
+        <v>-1.184444504145823</v>
       </c>
       <c r="D46">
-        <v>0.7119987014598571</v>
+        <v>1.51100450394622</v>
       </c>
       <c r="E46">
-        <v>-0.9712421513414239</v>
+        <v>-0.747351767768806</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.8364111440380563</v>
+        <v>0.08112803795196405</v>
       </c>
       <c r="B47">
-        <v>0.8241227605100188</v>
+        <v>1.427192499550516</v>
       </c>
       <c r="C47">
-        <v>-0.01674003576199317</v>
+        <v>0.7141270760578732</v>
       </c>
       <c r="D47">
-        <v>0.2891483646968733</v>
+        <v>-0.1035796875377302</v>
       </c>
       <c r="E47">
-        <v>-1.329426195049229</v>
+        <v>0.1396112116876215</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>-0.3423631265490474</v>
+        <v>-0.2185666352055015</v>
       </c>
       <c r="B48">
-        <v>0.7132909255740046</v>
+        <v>0.3245264244678724</v>
       </c>
       <c r="C48">
-        <v>0.6395490630314868</v>
+        <v>-0.4331185896818966</v>
       </c>
       <c r="D48">
-        <v>-0.7171903060405729</v>
+        <v>-0.7373814400470463</v>
       </c>
       <c r="E48">
-        <v>-0.5705816101689796</v>
+        <v>0.842173565024536</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.4448982921211311</v>
+        <v>-0.1672544336794866</v>
       </c>
       <c r="B49">
-        <v>-0.8289435378189696</v>
+        <v>-0.04462893452671297</v>
       </c>
       <c r="C49">
-        <v>-0.2657125667774637</v>
+        <v>0.08994184499697604</v>
       </c>
       <c r="D49">
-        <v>0.2427873585952367</v>
+        <v>0.5472785026775809</v>
       </c>
       <c r="E49">
-        <v>-0.08342639930761372</v>
+        <v>-0.9737105744317969</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>-0.273228052422734</v>
+        <v>-0.3672886092707429</v>
       </c>
       <c r="B50">
-        <v>0.153573304339286</v>
+        <v>-0.6737181185090091</v>
       </c>
       <c r="C50">
-        <v>-1.261785361790119</v>
+        <v>0.8267484515567428</v>
       </c>
       <c r="D50">
-        <v>-1.51707914202474</v>
+        <v>-1.193734483586324</v>
       </c>
       <c r="E50">
-        <v>0.2684545915058649</v>
+        <v>-0.3873019581059596</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>-0.3897622803592259</v>
+        <v>-0.5906226031303997</v>
       </c>
       <c r="B51">
-        <v>-0.720232158209174</v>
+        <v>-0.9240271876959264</v>
       </c>
       <c r="C51">
-        <v>-1.824149432770295</v>
+        <v>0.9409153046340462</v>
       </c>
       <c r="D51">
-        <v>0.4680604492636889</v>
+        <v>0.7688780296921975</v>
       </c>
       <c r="E51">
-        <v>0.1178559720578355</v>
+        <v>-0.3851229078116918</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1.619508899246113</v>
+        <v>0.3070054700628338</v>
       </c>
       <c r="B52">
-        <v>0.9374652050037295</v>
+        <v>2.42703759320356</v>
       </c>
       <c r="C52">
-        <v>0.9097489783411989</v>
+        <v>0.4079466495510528</v>
       </c>
       <c r="D52">
-        <v>0.3448494239710606</v>
+        <v>-0.141356037192484</v>
       </c>
       <c r="E52">
-        <v>-1.955003173721948</v>
+        <v>-0.2000531136313881</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.4624941196449872</v>
+        <v>0.0540677315895849</v>
       </c>
       <c r="B53">
-        <v>0.7112957672124309</v>
+        <v>0.897414900754435</v>
       </c>
       <c r="C53">
-        <v>0.8922484094456701</v>
+        <v>-0.2628501550806163</v>
       </c>
       <c r="D53">
-        <v>-1.186450046481641</v>
+        <v>-1.194246290580952</v>
       </c>
       <c r="E53">
-        <v>-0.6962791743711442</v>
+        <v>0.01876928177624918</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>-0.6147263604064945</v>
+        <v>-0.7676050260936362</v>
       </c>
       <c r="B54">
-        <v>-0.4207955755743905</v>
+        <v>-0.8525400837536281</v>
       </c>
       <c r="C54">
-        <v>0.5576392634795949</v>
+        <v>-1.036262116400307</v>
       </c>
       <c r="D54">
-        <v>-2.545061885558508</v>
+        <v>-1.592852543018166</v>
       </c>
       <c r="E54">
-        <v>0.1598403613332963</v>
+        <v>-0.4236958611744503</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.4612130257557496</v>
+        <v>1.541198669619127</v>
       </c>
       <c r="B55">
-        <v>0.730864263741686</v>
+        <v>0.394445153307602</v>
       </c>
       <c r="C55">
-        <v>0.826315994057848</v>
+        <v>0.01503327311153322</v>
       </c>
       <c r="D55">
-        <v>0.9126013422859094</v>
+        <v>-0.03285779785121049</v>
       </c>
       <c r="E55">
-        <v>1.362887772079291</v>
+        <v>0.2828289691023651</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>-0.3839829837783064</v>
+        <v>-1.013969708036477</v>
       </c>
       <c r="B56">
-        <v>-2.349837464913647</v>
+        <v>-1.115666425757049</v>
       </c>
       <c r="C56">
-        <v>0.3461319124621016</v>
+        <v>-1.397088268532773</v>
       </c>
       <c r="D56">
-        <v>0.4863784739193865</v>
+        <v>1.618227448877046</v>
       </c>
       <c r="E56">
-        <v>0.03329958928296475</v>
+        <v>-1.123770787102035</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>-1.715723810310708</v>
+        <v>-0.5760610508199696</v>
       </c>
       <c r="B57">
-        <v>-0.06473716584687934</v>
+        <v>-1.189261123357163</v>
       </c>
       <c r="C57">
-        <v>0.5799149291616891</v>
+        <v>-1.298945858911775</v>
       </c>
       <c r="D57">
-        <v>-0.01083872138963421</v>
+        <v>0.2350000701027622</v>
       </c>
       <c r="E57">
-        <v>0.3838188607487272</v>
+        <v>1.592868141028786</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1.086918107299657</v>
+        <v>2.838240747608286</v>
       </c>
       <c r="B58">
-        <v>0.9370579118168509</v>
+        <v>0.1363541611888254</v>
       </c>
       <c r="C58">
-        <v>0.4064070374041918</v>
+        <v>0.8202160935176449</v>
       </c>
       <c r="D58">
-        <v>0.8754141271687889</v>
+        <v>-0.596317167765639</v>
       </c>
       <c r="E58">
-        <v>3.159919841835352</v>
+        <v>-0.5730079697862192</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1.104850228728328</v>
+        <v>1.275795124172823</v>
       </c>
       <c r="B59">
-        <v>0.658921192038749</v>
+        <v>0.5548398831544612</v>
       </c>
       <c r="C59">
-        <v>-1.114825964490561</v>
+        <v>1.760720281321386</v>
       </c>
       <c r="D59">
-        <v>0.8037044103396926</v>
+        <v>-0.08079882160423775</v>
       </c>
       <c r="E59">
-        <v>0.8740240934006952</v>
+        <v>-0.6872721714727701</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>-0.2590312600347171</v>
+        <v>-1.026759482427704</v>
       </c>
       <c r="B60">
-        <v>-0.2921223491601386</v>
+        <v>-0.2631799177679143</v>
       </c>
       <c r="C60">
-        <v>-2.004955121280399</v>
+        <v>1.256909648422601</v>
       </c>
       <c r="D60">
-        <v>0.4021632292666669</v>
+        <v>0.6981606701271885</v>
       </c>
       <c r="E60">
-        <v>-1.069777896016595</v>
+        <v>-0.03716119475214755</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.8702171386666633</v>
+        <v>0.9886795996720416</v>
       </c>
       <c r="B61">
-        <v>0.892663688084117</v>
+        <v>1.120755018436917</v>
       </c>
       <c r="C61">
-        <v>0.8434850497949668</v>
+        <v>0.1658079634270822</v>
       </c>
       <c r="D61">
-        <v>0.1918566918057972</v>
+        <v>-0.4804083763151621</v>
       </c>
       <c r="E61">
-        <v>0.08231254451701062</v>
+        <v>0.03577250721264019</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>-0.2237892018452554</v>
+        <v>-0.7663276847768901</v>
       </c>
       <c r="B62">
-        <v>-1.327817432717525</v>
+        <v>-0.9690263524667653</v>
       </c>
       <c r="C62">
-        <v>-1.350564823245331</v>
+        <v>0.3952626902273244</v>
       </c>
       <c r="D62">
-        <v>0.2838505105738802</v>
+        <v>0.9256082825471776</v>
       </c>
       <c r="E62">
-        <v>0.05391951113885984</v>
+        <v>-0.930132323807193</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>-0.2203458510537907</v>
+        <v>-0.350679091549281</v>
       </c>
       <c r="B63">
-        <v>-0.4777797920207457</v>
+        <v>-0.6819330596278737</v>
       </c>
       <c r="C63">
-        <v>-1.229029208395242</v>
+        <v>0.6488412544148098</v>
       </c>
       <c r="D63">
-        <v>0.01918746025277215</v>
+        <v>0.2627271934316385</v>
       </c>
       <c r="E63">
-        <v>0.2212786675428378</v>
+        <v>-0.409374762545018</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.6378933385563079</v>
+        <v>0.5570356973277184</v>
       </c>
       <c r="B64">
-        <v>0.7368404789173875</v>
+        <v>1.156810569302574</v>
       </c>
       <c r="C64">
-        <v>0.4990875027138104</v>
+        <v>0.2595365547363961</v>
       </c>
       <c r="D64">
-        <v>0.9290903027947172</v>
+        <v>0.2989244275512674</v>
       </c>
       <c r="E64">
-        <v>-0.5449933201534023</v>
+        <v>0.4125549312375346</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>-0.05009575335536307</v>
+        <v>0.4831969147740237</v>
       </c>
       <c r="B65">
-        <v>-0.1356564732652186</v>
+        <v>-0.2882760530867901</v>
       </c>
       <c r="C65">
-        <v>0.1709868889219405</v>
+        <v>-0.1401121418856801</v>
       </c>
       <c r="D65">
-        <v>0.5493109764163261</v>
+        <v>0.3317815032744705</v>
       </c>
       <c r="E65">
-        <v>0.8187914345872316</v>
+        <v>-0.0005784646121208825</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.7711655152285573</v>
+        <v>0.3968760120309407</v>
       </c>
       <c r="B66">
-        <v>0.7482047526018264</v>
+        <v>1.059786313570533</v>
       </c>
       <c r="C66">
-        <v>0.7193034196927642</v>
+        <v>0.07382634954393996</v>
       </c>
       <c r="D66">
-        <v>-0.7232419760885278</v>
+        <v>-0.961513595429263</v>
       </c>
       <c r="E66">
-        <v>-0.47778291319153</v>
+        <v>-0.1752675835843968</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>-1.593885598338524</v>
+        <v>-0.8436712872103607</v>
       </c>
       <c r="B67">
-        <v>-1.350933214688296</v>
+        <v>-1.629798171828452</v>
       </c>
       <c r="C67">
-        <v>0.7364562951837552</v>
+        <v>-1.855317650796043</v>
       </c>
       <c r="D67">
-        <v>0.4399945747177858</v>
+        <v>1.169104246837061</v>
       </c>
       <c r="E67">
-        <v>0.5825194332565881</v>
+        <v>0.6847059004288457</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>-0.6055199317215354</v>
+        <v>-0.597288142222296</v>
       </c>
       <c r="B68">
-        <v>-0.4494085264659435</v>
+        <v>-0.8592129367983018</v>
       </c>
       <c r="C68">
-        <v>-1.590676434889109</v>
+        <v>0.765048459847018</v>
       </c>
       <c r="D68">
-        <v>0.5244152533074057</v>
+        <v>0.7250976276258419</v>
       </c>
       <c r="E68">
-        <v>0.01299091830743332</v>
+        <v>0.09227170162749875</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.8145739472405326</v>
+        <v>0.4825618566402212</v>
       </c>
       <c r="B69">
-        <v>0.5777623542316261</v>
+        <v>0.662342303030053</v>
       </c>
       <c r="C69">
-        <v>0.5446056067903282</v>
+        <v>0.142158741124304</v>
       </c>
       <c r="D69">
-        <v>-1.555984958127753</v>
+        <v>-1.599233772345494</v>
       </c>
       <c r="E69">
-        <v>0.09339062189907847</v>
+        <v>-0.7292009087343628</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>-0.1271134883194931</v>
+        <v>-1.085803726637865</v>
       </c>
       <c r="B70">
-        <v>-1.631140999661491</v>
+        <v>-0.4231515843632622</v>
       </c>
       <c r="C70">
-        <v>0.04833478309817801</v>
+        <v>-0.7925137957093472</v>
       </c>
       <c r="D70">
-        <v>0.3677400476782055</v>
+        <v>1.269228116878811</v>
       </c>
       <c r="E70">
-        <v>-0.7707501692257492</v>
+        <v>-0.7930648014249815</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>-0.7873977771762392</v>
+        <v>-0.1048278896393106</v>
       </c>
       <c r="B71">
-        <v>0.8637040052319079</v>
+        <v>-0.09320354731291508</v>
       </c>
       <c r="C71">
-        <v>-0.6431332484188973</v>
+        <v>0.4932679856568899</v>
       </c>
       <c r="D71">
-        <v>0.8208302587658048</v>
+        <v>0.3453665778059093</v>
       </c>
       <c r="E71">
-        <v>-0.2624442238070893</v>
+        <v>1.529419798152172</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>-1.622802131738798</v>
+        <v>-0.2681754906852186</v>
       </c>
       <c r="B72">
-        <v>0.895095741127937</v>
+        <v>-0.4839054571640242</v>
       </c>
       <c r="C72">
-        <v>0.97865378661612</v>
+        <v>-1.176350058187749</v>
       </c>
       <c r="D72">
-        <v>0.09824827287292468</v>
+        <v>-0.1226373298903624</v>
       </c>
       <c r="E72">
-        <v>-0.007228886075481611</v>
+        <v>2.377950107435155</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.7119658779978884</v>
+        <v>-0.0008926884330535817</v>
       </c>
       <c r="B73">
-        <v>0.4782822525866765</v>
+        <v>0.9463526377840571</v>
       </c>
       <c r="C73">
-        <v>0.06233267127901039</v>
+        <v>0.430497492425955</v>
       </c>
       <c r="D73">
-        <v>-0.4806922594968783</v>
+        <v>-0.5588785223833117</v>
       </c>
       <c r="E73">
-        <v>-0.8672134415445283</v>
+        <v>-0.295982379008763</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.5906125601160965</v>
+        <v>-0.08262750950790501</v>
       </c>
       <c r="B74">
-        <v>0.1136321026642853</v>
+        <v>0.5602967868239562</v>
       </c>
       <c r="C74">
-        <v>0.1859680011814204</v>
+        <v>0.1203935598823424</v>
       </c>
       <c r="D74">
-        <v>-0.8851340441354353</v>
+        <v>-0.7137771596116308</v>
       </c>
       <c r="E74">
-        <v>-0.525103463048144</v>
+        <v>-0.6065184445916123</v>
       </c>
     </row>
   </sheetData>
